--- a/NEW HR/ROMILLA, MARIBEL.xlsx
+++ b/NEW HR/ROMILLA, MARIBEL.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81650629-EC26-4A65-A4AA-E80DCAB20B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -28,7 +27,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="123">
   <si>
     <t>PERIOD</t>
   </si>
@@ -401,12 +400,18 @@
   </si>
   <si>
     <t>FL(5-0-0)</t>
+  </si>
+  <si>
+    <t>EMERGENCY 3/17/23</t>
+  </si>
+  <si>
+    <t>PARENTAL 3/29/23</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1335,7 +1340,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1378,7 +1383,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1442,7 +1447,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1502,7 +1507,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1568,7 +1573,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1631,7 +1636,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1729,7 +1734,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1788,7 +1793,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1853,7 +1858,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1896,7 +1901,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1971,7 +1976,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2157,7 +2162,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2223,7 +2228,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2281,7 +2286,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2347,7 +2352,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2403,7 +2408,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2478,7 +2483,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2521,7 +2526,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2587,7 +2592,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2643,7 +2648,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2739,25 +2744,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K121" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K121" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2769,25 +2774,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K133" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K133" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3094,7 +3099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3104,7 +3109,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3112,34 +3117,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A76" activePane="bottomLeft"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A76" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
       <selection pane="bottomLeft" activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3162,7 +3167,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3182,7 +3187,7 @@
       <c r="J3" s="55"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3204,7 +3209,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3212,7 +3217,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3225,7 +3230,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="57" t="s">
@@ -3242,7 +3247,7 @@
       <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3277,7 +3282,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3301,7 +3306,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>45</v>
       </c>
@@ -3323,7 +3328,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3349,7 +3354,7 @@
         <v>43110</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40"/>
       <c r="B12" s="20" t="s">
         <v>46</v>
@@ -3371,7 +3376,7 @@
         <v>43126</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43132</v>
       </c>
@@ -3397,7 +3402,7 @@
         <v>43144</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40"/>
       <c r="B14" s="20" t="s">
         <v>47</v>
@@ -3419,7 +3424,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43160</v>
       </c>
@@ -3439,7 +3444,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43191</v>
       </c>
@@ -3465,7 +3470,7 @@
         <v>43192</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
         <v>52</v>
@@ -3487,7 +3492,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43221</v>
       </c>
@@ -3513,7 +3518,7 @@
         <v>43222</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
         <v>55</v>
@@ -3535,7 +3540,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43252</v>
       </c>
@@ -3561,7 +3566,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43282</v>
       </c>
@@ -3587,7 +3592,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43313</v>
       </c>
@@ -3607,7 +3612,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>43344</v>
       </c>
@@ -3633,7 +3638,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43374</v>
       </c>
@@ -3659,7 +3664,7 @@
         <v>43388</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
       <c r="B25" s="20" t="s">
         <v>47</v>
@@ -3681,7 +3686,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43405</v>
       </c>
@@ -3707,7 +3712,7 @@
         <v>43410</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43435</v>
       </c>
@@ -3733,7 +3738,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>120</v>
@@ -3753,7 +3758,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="48" t="s">
         <v>78</v>
       </c>
@@ -3771,7 +3776,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>43466</v>
       </c>
@@ -3791,7 +3796,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43497</v>
       </c>
@@ -3811,7 +3816,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>43525</v>
       </c>
@@ -3831,7 +3836,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43556</v>
       </c>
@@ -3851,7 +3856,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="49"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>43586</v>
       </c>
@@ -3871,7 +3876,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="49"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>43617</v>
       </c>
@@ -3891,7 +3896,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="49"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>43647</v>
       </c>
@@ -3911,7 +3916,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="49"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>43678</v>
       </c>
@@ -3931,7 +3936,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="49"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>43709</v>
       </c>
@@ -3951,7 +3956,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="49"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>43739</v>
       </c>
@@ -3971,7 +3976,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="49"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>43770</v>
       </c>
@@ -3991,7 +3996,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="49"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>43800</v>
       </c>
@@ -4015,7 +4020,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="48" t="s">
         <v>91</v>
       </c>
@@ -4033,7 +4038,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>43831</v>
       </c>
@@ -4053,7 +4058,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>43862</v>
       </c>
@@ -4073,7 +4078,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>43891</v>
       </c>
@@ -4093,7 +4098,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>43922</v>
       </c>
@@ -4113,7 +4118,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>43952</v>
       </c>
@@ -4133,7 +4138,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>43983</v>
       </c>
@@ -4153,7 +4158,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="49"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>44013</v>
       </c>
@@ -4173,7 +4178,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>44044</v>
       </c>
@@ -4193,7 +4198,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>44075</v>
       </c>
@@ -4213,7 +4218,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>44105</v>
       </c>
@@ -4233,7 +4238,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>44136</v>
       </c>
@@ -4253,7 +4258,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>44166</v>
       </c>
@@ -4277,7 +4282,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="48" t="s">
         <v>101</v>
       </c>
@@ -4295,7 +4300,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>44197</v>
       </c>
@@ -4315,7 +4320,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>44228</v>
       </c>
@@ -4335,7 +4340,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="49"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>44256</v>
       </c>
@@ -4355,7 +4360,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44287</v>
       </c>
@@ -4375,7 +4380,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>44317</v>
       </c>
@@ -4395,7 +4400,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>44348</v>
       </c>
@@ -4415,7 +4420,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>44378</v>
       </c>
@@ -4435,7 +4440,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="49"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>44409</v>
       </c>
@@ -4455,7 +4460,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="49"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44440</v>
       </c>
@@ -4475,7 +4480,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>44470</v>
       </c>
@@ -4495,7 +4500,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="41">
         <v>44501</v>
       </c>
@@ -4515,7 +4520,7 @@
       <c r="J66" s="12"/>
       <c r="K66" s="15"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>44531</v>
       </c>
@@ -4539,7 +4544,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="48" t="s">
         <v>106</v>
       </c>
@@ -4557,7 +4562,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44562</v>
       </c>
@@ -4577,7 +4582,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>44593</v>
       </c>
@@ -4597,7 +4602,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>44621</v>
       </c>
@@ -4617,7 +4622,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="49"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>44652</v>
       </c>
@@ -4637,7 +4642,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="49"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>44682</v>
       </c>
@@ -4657,7 +4662,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>44713</v>
       </c>
@@ -4677,7 +4682,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>44743</v>
       </c>
@@ -4697,7 +4702,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="49"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>44774</v>
       </c>
@@ -4717,7 +4722,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="49"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>44805</v>
       </c>
@@ -4737,7 +4742,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>44835</v>
       </c>
@@ -4757,7 +4762,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>44866</v>
       </c>
@@ -4777,7 +4782,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="49"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>44896</v>
       </c>
@@ -4801,7 +4806,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>46</v>
@@ -4823,7 +4828,7 @@
         <v>44918</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="48" t="s">
         <v>118</v>
       </c>
@@ -4841,7 +4846,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>44927</v>
       </c>
@@ -4861,7 +4866,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>44958</v>
       </c>
@@ -4887,7 +4892,7 @@
         <v>44960</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>83</v>
@@ -4909,7 +4914,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>44986</v>
       </c>
@@ -4935,7 +4940,7 @@
         <v>44949</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>45017</v>
       </c>
@@ -4953,7 +4958,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>45047</v>
       </c>
@@ -4971,7 +4976,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>45078</v>
       </c>
@@ -4989,7 +4994,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>45108</v>
       </c>
@@ -5007,7 +5012,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>45139</v>
       </c>
@@ -5025,7 +5030,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>45170</v>
       </c>
@@ -5043,7 +5048,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>45200</v>
       </c>
@@ -5061,7 +5066,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>45231</v>
       </c>
@@ -5079,7 +5084,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>45261</v>
       </c>
@@ -5097,7 +5102,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>45292</v>
       </c>
@@ -5115,7 +5120,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>45323</v>
       </c>
@@ -5133,7 +5138,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>45352</v>
       </c>
@@ -5151,7 +5156,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>45383</v>
       </c>
@@ -5169,7 +5174,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>45413</v>
       </c>
@@ -5187,7 +5192,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>45444</v>
       </c>
@@ -5205,7 +5210,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>45474</v>
       </c>
@@ -5223,7 +5228,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>45505</v>
       </c>
@@ -5241,7 +5246,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>45536</v>
       </c>
@@ -5259,7 +5264,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>45566</v>
       </c>
@@ -5277,7 +5282,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>45597</v>
       </c>
@@ -5295,7 +5300,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>45627</v>
       </c>
@@ -5313,7 +5318,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>45658</v>
       </c>
@@ -5331,7 +5336,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <v>45689</v>
       </c>
@@ -5349,7 +5354,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>45717</v>
       </c>
@@ -5367,7 +5372,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>45748</v>
       </c>
@@ -5385,7 +5390,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <v>45778</v>
       </c>
@@ -5403,7 +5408,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <v>45809</v>
       </c>
@@ -5421,7 +5426,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>45839</v>
       </c>
@@ -5439,7 +5444,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>45870</v>
       </c>
@@ -5457,7 +5462,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>45901</v>
       </c>
@@ -5475,7 +5480,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>45931</v>
       </c>
@@ -5493,7 +5498,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>45962</v>
       </c>
@@ -5511,7 +5516,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>45992</v>
       </c>
@@ -5529,7 +5534,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>46023</v>
       </c>
@@ -5547,7 +5552,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="41"/>
       <c r="B121" s="15"/>
       <c r="C121" s="42"/>
@@ -5578,10 +5583,10 @@
     <mergeCell ref="J3:K3"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5604,34 +5609,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K133"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A82" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A82" activePane="bottomLeft"/>
       <selection activeCell="C6" sqref="C6"/>
-      <selection pane="bottomLeft" activeCell="B102" sqref="B102"/>
+      <selection pane="bottomLeft" activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -5654,7 +5659,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -5674,7 +5679,7 @@
       <c r="J3" s="55"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -5696,7 +5701,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -5704,7 +5709,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -5717,7 +5722,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="57" t="s">
@@ -5734,7 +5739,7 @@
       <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -5769,7 +5774,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -5793,7 +5798,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>45</v>
       </c>
@@ -5815,7 +5820,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43160</v>
       </c>
@@ -5839,7 +5844,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43191</v>
       </c>
@@ -5861,7 +5866,7 @@
         <v>43220</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40"/>
       <c r="B13" s="20" t="s">
         <v>54</v>
@@ -5881,7 +5886,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43221</v>
       </c>
@@ -5903,7 +5908,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43252</v>
       </c>
@@ -5927,7 +5932,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
       <c r="B16" s="20" t="s">
         <v>54</v>
@@ -5949,7 +5954,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
         <v>62</v>
@@ -5969,7 +5974,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43282</v>
       </c>
@@ -5993,7 +5998,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
         <v>65</v>
@@ -6013,7 +6018,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>54</v>
@@ -6035,7 +6040,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43313</v>
       </c>
@@ -6059,7 +6064,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
       <c r="B22" s="20" t="s">
         <v>54</v>
@@ -6081,7 +6086,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>69</v>
@@ -6101,7 +6106,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43344</v>
       </c>
@@ -6125,7 +6130,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
       <c r="B25" s="20" t="s">
         <v>73</v>
@@ -6145,7 +6150,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43374</v>
       </c>
@@ -6167,7 +6172,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43405</v>
       </c>
@@ -6189,7 +6194,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="48" t="s">
         <v>78</v>
       </c>
@@ -6207,7 +6212,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>43466</v>
       </c>
@@ -6229,7 +6234,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>80</v>
@@ -6249,7 +6254,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43497</v>
       </c>
@@ -6273,7 +6278,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>43525</v>
       </c>
@@ -6297,7 +6302,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43556</v>
       </c>
@@ -6319,7 +6324,7 @@
         <v>43560</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>47</v>
@@ -6341,7 +6346,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>53</v>
@@ -6361,7 +6366,7 @@
         <v>43579</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>80</v>
@@ -6383,7 +6388,7 @@
         <v>43581</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>43586</v>
       </c>
@@ -6407,7 +6412,7 @@
         <v>43593</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>43617</v>
       </c>
@@ -6431,7 +6436,7 @@
         <v>43627</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>53</v>
@@ -6451,7 +6456,7 @@
         <v>43635</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>46</v>
@@ -6473,7 +6478,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>43647</v>
       </c>
@@ -6497,7 +6502,7 @@
         <v>43662</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
         <v>47</v>
@@ -6519,7 +6524,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>43678</v>
       </c>
@@ -6543,7 +6548,7 @@
         <v>43696</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>43709</v>
       </c>
@@ -6567,7 +6572,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
         <v>87</v>
@@ -6589,7 +6594,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>80</v>
@@ -6611,7 +6616,7 @@
         <v>43733</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>43739</v>
       </c>
@@ -6635,7 +6640,7 @@
         <v>43741</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
         <v>47</v>
@@ -6657,7 +6662,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>43770</v>
       </c>
@@ -6681,7 +6686,7 @@
         <v>43777</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20" t="s">
         <v>70</v>
@@ -6703,7 +6708,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
         <v>46</v>
@@ -6725,7 +6730,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="48" t="s">
         <v>91</v>
       </c>
@@ -6743,7 +6748,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>43831</v>
       </c>
@@ -6767,7 +6772,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>43862</v>
       </c>
@@ -6789,7 +6794,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>93</v>
@@ -6809,7 +6814,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>43983</v>
       </c>
@@ -6833,7 +6838,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>44075</v>
       </c>
@@ -6857,7 +6862,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>58</v>
@@ -6879,7 +6884,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20" t="s">
         <v>98</v>
@@ -6899,7 +6904,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>44166</v>
       </c>
@@ -6921,7 +6926,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="48" t="s">
         <v>101</v>
       </c>
@@ -6939,7 +6944,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>44197</v>
       </c>
@@ -6963,7 +6968,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>44228</v>
       </c>
@@ -6985,7 +6990,7 @@
         <v>44229</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
       <c r="B64" s="20" t="s">
         <v>80</v>
@@ -7007,7 +7012,7 @@
         <v>44253</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>44256</v>
       </c>
@@ -7031,7 +7036,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>44378</v>
       </c>
@@ -7055,7 +7060,7 @@
         <v>44385</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>81</v>
@@ -7077,7 +7082,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20" t="s">
         <v>80</v>
@@ -7099,7 +7104,7 @@
         <v>44400</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44409</v>
       </c>
@@ -7123,7 +7128,7 @@
         <v>44413</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20" t="s">
         <v>46</v>
@@ -7145,7 +7150,7 @@
         <v>44407</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>53</v>
@@ -7165,7 +7170,7 @@
         <v>44417</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>44470</v>
       </c>
@@ -7187,7 +7192,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>80</v>
@@ -7209,7 +7214,7 @@
         <v>44496</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>44531</v>
       </c>
@@ -7227,7 +7232,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="48" t="s">
         <v>106</v>
       </c>
@@ -7245,7 +7250,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>44562</v>
       </c>
@@ -7267,7 +7272,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>44593</v>
       </c>
@@ -7291,7 +7296,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
         <v>53</v>
@@ -7311,7 +7316,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>44621</v>
       </c>
@@ -7335,7 +7340,7 @@
         <v>44638</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
         <v>46</v>
@@ -7357,7 +7362,7 @@
         <v>44634</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>46</v>
@@ -7379,7 +7384,7 @@
         <v>44642</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>44652</v>
       </c>
@@ -7403,7 +7408,7 @@
         <v>44669</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20" t="s">
         <v>53</v>
@@ -7423,7 +7428,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>44743</v>
       </c>
@@ -7447,7 +7452,7 @@
         <v>44753</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>44774</v>
       </c>
@@ -7471,7 +7476,7 @@
         <v>44767</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20" t="s">
         <v>46</v>
@@ -7493,7 +7498,7 @@
         <v>44775</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>80</v>
@@ -7515,7 +7520,7 @@
         <v>44795</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>44805</v>
       </c>
@@ -7539,7 +7544,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
         <v>47</v>
@@ -7561,7 +7566,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20" t="s">
         <v>80</v>
@@ -7583,7 +7588,7 @@
         <v>44832</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>44835</v>
       </c>
@@ -7607,7 +7612,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20" t="s">
         <v>80</v>
@@ -7629,7 +7634,7 @@
         <v>44861</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>44866</v>
       </c>
@@ -7653,7 +7658,7 @@
         <v>44872</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
         <v>47</v>
@@ -7675,7 +7680,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>44896</v>
       </c>
@@ -7699,7 +7704,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="48" t="s">
         <v>118</v>
       </c>
@@ -7717,7 +7722,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>44958</v>
       </c>
@@ -7741,9 +7746,13 @@
         <v>119</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A98" s="40"/>
-      <c r="B98" s="20"/>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" s="40">
+        <v>44986</v>
+      </c>
+      <c r="B98" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C98" s="13"/>
       <c r="D98" s="39"/>
       <c r="E98" s="9"/>
@@ -7755,11 +7764,15 @@
       <c r="H98" s="39"/>
       <c r="I98" s="9"/>
       <c r="J98" s="11"/>
-      <c r="K98" s="20"/>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K98" s="20" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
-      <c r="B99" s="20"/>
+      <c r="B99" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C99" s="13"/>
       <c r="D99" s="39"/>
       <c r="E99" s="9"/>
@@ -7771,9 +7784,11 @@
       <c r="H99" s="39"/>
       <c r="I99" s="9"/>
       <c r="J99" s="11"/>
-      <c r="K99" s="20"/>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K99" s="20" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -7789,7 +7804,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -7805,7 +7820,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -7821,7 +7836,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -7837,7 +7852,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -7853,7 +7868,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -7869,7 +7884,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -7885,7 +7900,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -7901,7 +7916,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -7917,7 +7932,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -7933,7 +7948,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -7949,7 +7964,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -7965,7 +7980,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -7981,7 +7996,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -7997,7 +8012,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -8013,7 +8028,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -8029,7 +8044,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -8045,7 +8060,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -8061,7 +8076,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -8077,7 +8092,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -8093,7 +8108,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -8109,7 +8124,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -8125,7 +8140,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -8141,7 +8156,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -8157,7 +8172,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -8173,7 +8188,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -8189,7 +8204,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -8205,7 +8220,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -8221,7 +8236,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -8237,7 +8252,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -8253,7 +8268,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -8269,7 +8284,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -8285,7 +8300,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -8301,7 +8316,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="41"/>
       <c r="B133" s="15"/>
       <c r="C133" s="42"/>
@@ -8332,10 +8347,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8358,28 +8373,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -8392,7 +8407,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -8421,7 +8436,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>84.25</v>
       </c>
@@ -8451,17 +8466,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -8482,7 +8497,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -8509,7 +8524,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -8535,7 +8550,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -8561,7 +8576,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -8587,7 +8602,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -8613,7 +8628,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -8639,7 +8654,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -8665,7 +8680,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -8691,7 +8706,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -8711,7 +8726,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -8731,7 +8746,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -8751,7 +8766,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -8772,7 +8787,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -8793,7 +8808,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -8814,7 +8829,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -8835,7 +8850,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -8856,7 +8871,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -8877,7 +8892,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -8898,7 +8913,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -8919,7 +8934,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -8940,7 +8955,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -8961,7 +8976,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -8982,7 +8997,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -9003,7 +9018,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -9024,7 +9039,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -9045,7 +9060,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -9066,7 +9081,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -9087,7 +9102,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -9108,7 +9123,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -9129,7 +9144,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -9150,7 +9165,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -9171,7 +9186,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -9180,7 +9195,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -9189,7 +9204,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -9198,7 +9213,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -9207,7 +9222,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -9216,7 +9231,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -9225,7 +9240,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -9234,7 +9249,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -9243,7 +9258,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -9252,7 +9267,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -9261,7 +9276,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -9270,7 +9285,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -9279,7 +9294,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -9288,7 +9303,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -9297,7 +9312,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -9306,7 +9321,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -9315,7 +9330,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -9324,7 +9339,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -9333,7 +9348,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -9342,7 +9357,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -9351,7 +9366,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -9360,7 +9375,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -9369,7 +9384,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -9378,7 +9393,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -9387,7 +9402,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -9396,7 +9411,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -9405,7 +9420,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -9414,7 +9429,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -9423,7 +9438,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -9432,7 +9447,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/ROMILLA, MARIBEL.xlsx
+++ b/NEW HR/ROMILLA, MARIBEL.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="124">
   <si>
     <t>PERIOD</t>
   </si>
@@ -406,6 +406,9 @@
   </si>
   <si>
     <t>PARENTAL 3/29/23</t>
+  </si>
+  <si>
+    <t>4/11-13/2023</t>
   </si>
 </sst>
 </file>
@@ -790,14 +793,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -807,9 +813,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1340,7 +1343,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1383,7 +1386,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1447,7 +1450,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1507,7 +1510,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1573,7 +1576,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1636,7 +1639,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1734,7 +1737,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1793,7 +1796,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1858,7 +1861,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1901,7 +1904,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1976,7 +1979,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2162,7 +2165,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2228,7 +2231,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2286,7 +2289,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2352,7 +2355,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2408,7 +2411,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2483,7 +2486,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2526,7 +2529,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2592,7 +2595,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2648,7 +2651,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3123,10 +3126,10 @@
   </sheetPr>
   <dimension ref="A2:K121"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A76" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="B87" sqref="B87"/>
+      <selection pane="bottomLeft" activeCell="H88" sqref="H88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3156,16 +3159,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51" t="s">
+      <c r="F2" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="51"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3176,16 +3179,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="55">
         <v>39085</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3198,16 +3201,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3233,18 +3236,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3301,7 +3304,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>41.75</v>
+        <v>38.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4944,7 +4947,9 @@
       <c r="A87" s="40">
         <v>45017</v>
       </c>
-      <c r="B87" s="20"/>
+      <c r="B87" s="20" t="s">
+        <v>70</v>
+      </c>
       <c r="C87" s="13"/>
       <c r="D87" s="39"/>
       <c r="E87" s="9"/>
@@ -4953,10 +4958,14 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H87" s="39"/>
+      <c r="H87" s="39">
+        <v>3</v>
+      </c>
       <c r="I87" s="9"/>
       <c r="J87" s="11"/>
-      <c r="K87" s="20"/>
+      <c r="K87" s="20" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
@@ -5570,17 +5579,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5615,10 +5624,10 @@
   </sheetPr>
   <dimension ref="A2:K133"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A82" activePane="bottomLeft"/>
       <selection activeCell="C6" sqref="C6"/>
-      <selection pane="bottomLeft" activeCell="B100" sqref="B100"/>
+      <selection pane="bottomLeft" activeCell="A100" sqref="A100:B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5648,16 +5657,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51" t="s">
+      <c r="F2" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="51"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5668,16 +5677,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="55">
         <v>39085</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -5690,16 +5699,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5725,18 +5734,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -7789,8 +7798,12 @@
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="40"/>
-      <c r="B100" s="20"/>
+      <c r="A100" s="40">
+        <v>45017</v>
+      </c>
+      <c r="B100" s="20" t="s">
+        <v>70</v>
+      </c>
       <c r="C100" s="13"/>
       <c r="D100" s="39"/>
       <c r="E100" s="9"/>

--- a/NEW HR/ROMILLA, MARIBEL.xlsx
+++ b/NEW HR/ROMILLA, MARIBEL.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="125">
   <si>
     <t>PERIOD</t>
   </si>
@@ -409,6 +409,9 @@
   </si>
   <si>
     <t>4/11-13/2023</t>
+  </si>
+  <si>
+    <t>5/15,23/2023</t>
   </si>
 </sst>
 </file>
@@ -793,17 +796,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -813,6 +813,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1343,7 +1346,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1386,7 +1389,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1450,7 +1453,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1510,7 +1513,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1576,7 +1579,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1639,7 +1642,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1737,7 +1740,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1796,7 +1799,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1861,7 +1864,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1904,7 +1907,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1979,7 +1982,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2165,7 +2168,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2231,7 +2234,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2289,7 +2292,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2355,7 +2358,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2411,7 +2414,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2486,7 +2489,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2529,7 +2532,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2595,7 +2598,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2651,7 +2654,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3129,7 +3132,7 @@
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A76" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="H88" sqref="H88"/>
+      <selection pane="bottomLeft" activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3159,16 +3162,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="54"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3179,16 +3182,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="54">
         <v>39085</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3201,16 +3204,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3236,18 +3239,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3294,7 +3297,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>48.75</v>
+        <v>48</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3304,7 +3307,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>38.75</v>
+        <v>40</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4950,13 +4953,15 @@
       <c r="B87" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C87" s="13"/>
+      <c r="C87" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D87" s="39"/>
       <c r="E87" s="9"/>
       <c r="F87" s="20"/>
-      <c r="G87" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G87" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H87" s="39">
         <v>3</v>
@@ -4971,9 +4976,13 @@
       <c r="A88" s="40">
         <v>45047</v>
       </c>
-      <c r="B88" s="20"/>
+      <c r="B88" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="C88" s="13"/>
-      <c r="D88" s="39"/>
+      <c r="D88" s="39">
+        <v>2</v>
+      </c>
       <c r="E88" s="9"/>
       <c r="F88" s="20"/>
       <c r="G88" s="13" t="str">
@@ -4983,7 +4992,9 @@
       <c r="H88" s="39"/>
       <c r="I88" s="9"/>
       <c r="J88" s="11"/>
-      <c r="K88" s="20"/>
+      <c r="K88" s="20" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
@@ -5579,17 +5590,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5657,16 +5668,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="54"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5677,16 +5688,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="54">
         <v>39085</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -5699,16 +5710,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5734,18 +5745,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">

--- a/NEW HR/ROMILLA, MARIBEL.xlsx
+++ b/NEW HR/ROMILLA, MARIBEL.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EAE2832-B833-4238-9FC3-4D166E99D6FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -27,7 +28,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="126">
   <si>
     <t>PERIOD</t>
   </si>
@@ -412,12 +413,15 @@
   </si>
   <si>
     <t>5/15,23/2023</t>
+  </si>
+  <si>
+    <t>5/10,16-19/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -796,14 +800,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -813,9 +820,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1346,7 +1350,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1389,7 +1393,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1453,7 +1457,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1513,7 +1517,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1579,7 +1583,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1642,7 +1646,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1740,7 +1744,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1799,7 +1803,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1864,7 +1868,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1907,7 +1911,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1982,7 +1986,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2168,7 +2172,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2234,7 +2238,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2292,7 +2296,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2358,7 +2362,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2414,7 +2418,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2489,7 +2493,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2532,7 +2536,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2598,7 +2602,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2654,7 +2658,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2750,25 +2754,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K121" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K122" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2780,25 +2784,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K133" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K133" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3105,7 +3109,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3115,7 +3119,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3123,34 +3127,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K121"/>
+  <dimension ref="A2:K122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A76" activePane="bottomLeft"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3696" topLeftCell="A79" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="B89" sqref="B89"/>
+      <selection pane="bottomLeft" activeCell="K89" sqref="K89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3162,18 +3166,18 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51" t="s">
+      <c r="F2" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="51"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3182,18 +3186,18 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="55">
         <v>39085</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3204,18 +3208,18 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3223,7 +3227,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3236,24 +3240,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3288,7 +3292,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3307,12 +3311,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>45</v>
       </c>
@@ -3334,7 +3338,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3360,7 +3364,7 @@
         <v>43110</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40"/>
       <c r="B12" s="20" t="s">
         <v>46</v>
@@ -3382,7 +3386,7 @@
         <v>43126</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43132</v>
       </c>
@@ -3408,7 +3412,7 @@
         <v>43144</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40"/>
       <c r="B14" s="20" t="s">
         <v>47</v>
@@ -3430,7 +3434,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43160</v>
       </c>
@@ -3450,7 +3454,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>43191</v>
       </c>
@@ -3476,7 +3480,7 @@
         <v>43192</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
         <v>52</v>
@@ -3498,7 +3502,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43221</v>
       </c>
@@ -3524,7 +3528,7 @@
         <v>43222</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
         <v>55</v>
@@ -3546,7 +3550,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>43252</v>
       </c>
@@ -3572,7 +3576,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43282</v>
       </c>
@@ -3598,7 +3602,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>43313</v>
       </c>
@@ -3618,7 +3622,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>43344</v>
       </c>
@@ -3644,7 +3648,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>43374</v>
       </c>
@@ -3670,7 +3674,7 @@
         <v>43388</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40"/>
       <c r="B25" s="20" t="s">
         <v>47</v>
@@ -3692,7 +3696,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>43405</v>
       </c>
@@ -3718,7 +3722,7 @@
         <v>43410</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>43435</v>
       </c>
@@ -3744,7 +3748,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>120</v>
@@ -3764,7 +3768,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="48" t="s">
         <v>78</v>
       </c>
@@ -3782,7 +3786,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>43466</v>
       </c>
@@ -3802,7 +3806,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>43497</v>
       </c>
@@ -3822,7 +3826,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>43525</v>
       </c>
@@ -3842,7 +3846,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>43556</v>
       </c>
@@ -3862,7 +3866,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="49"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>43586</v>
       </c>
@@ -3882,7 +3886,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="49"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>43617</v>
       </c>
@@ -3902,7 +3906,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="49"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <v>43647</v>
       </c>
@@ -3922,7 +3926,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="49"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>43678</v>
       </c>
@@ -3942,7 +3946,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="49"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>43709</v>
       </c>
@@ -3962,7 +3966,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="49"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>43739</v>
       </c>
@@ -3982,7 +3986,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="49"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>43770</v>
       </c>
@@ -4002,7 +4006,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="49"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>43800</v>
       </c>
@@ -4026,7 +4030,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="48" t="s">
         <v>91</v>
       </c>
@@ -4044,7 +4048,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>43831</v>
       </c>
@@ -4064,7 +4068,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>43862</v>
       </c>
@@ -4084,7 +4088,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>43891</v>
       </c>
@@ -4104,7 +4108,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>43922</v>
       </c>
@@ -4124,7 +4128,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>43952</v>
       </c>
@@ -4144,7 +4148,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>43983</v>
       </c>
@@ -4164,7 +4168,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="49"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>44013</v>
       </c>
@@ -4184,7 +4188,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>44044</v>
       </c>
@@ -4204,7 +4208,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>44075</v>
       </c>
@@ -4224,7 +4228,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>44105</v>
       </c>
@@ -4244,7 +4248,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>44136</v>
       </c>
@@ -4264,7 +4268,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>44166</v>
       </c>
@@ -4288,7 +4292,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="48" t="s">
         <v>101</v>
       </c>
@@ -4306,7 +4310,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>44197</v>
       </c>
@@ -4326,7 +4330,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>44228</v>
       </c>
@@ -4346,7 +4350,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="49"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>44256</v>
       </c>
@@ -4366,7 +4370,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>44287</v>
       </c>
@@ -4386,7 +4390,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>44317</v>
       </c>
@@ -4406,7 +4410,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>44348</v>
       </c>
@@ -4426,7 +4430,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>44378</v>
       </c>
@@ -4446,7 +4450,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="49"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>44409</v>
       </c>
@@ -4466,7 +4470,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="49"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>44440</v>
       </c>
@@ -4486,7 +4490,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>44470</v>
       </c>
@@ -4506,7 +4510,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="41">
         <v>44501</v>
       </c>
@@ -4526,7 +4530,7 @@
       <c r="J66" s="12"/>
       <c r="K66" s="15"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>44531</v>
       </c>
@@ -4550,7 +4554,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="48" t="s">
         <v>106</v>
       </c>
@@ -4568,7 +4572,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>44562</v>
       </c>
@@ -4588,7 +4592,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>44593</v>
       </c>
@@ -4608,7 +4612,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>44621</v>
       </c>
@@ -4628,7 +4632,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="49"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>44652</v>
       </c>
@@ -4648,7 +4652,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="49"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>44682</v>
       </c>
@@ -4668,7 +4672,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>44713</v>
       </c>
@@ -4688,7 +4692,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <v>44743</v>
       </c>
@@ -4708,7 +4712,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="49"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>44774</v>
       </c>
@@ -4728,7 +4732,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="49"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>44805</v>
       </c>
@@ -4748,7 +4752,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>44835</v>
       </c>
@@ -4768,7 +4772,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>44866</v>
       </c>
@@ -4788,7 +4792,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="49"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>44896</v>
       </c>
@@ -4812,7 +4816,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>46</v>
@@ -4834,7 +4838,7 @@
         <v>44918</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="48" t="s">
         <v>118</v>
       </c>
@@ -4852,7 +4856,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <v>44927</v>
       </c>
@@ -4872,7 +4876,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <v>44958</v>
       </c>
@@ -4898,7 +4902,7 @@
         <v>44960</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>83</v>
@@ -4920,7 +4924,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <v>44986</v>
       </c>
@@ -4946,7 +4950,7 @@
         <v>44949</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <v>45017</v>
       </c>
@@ -4972,7 +4976,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <v>45047</v>
       </c>
@@ -4996,11 +5000,11 @@
         <v>124</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B89" s="20"/>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A89" s="40"/>
+      <c r="B89" s="20" t="s">
+        <v>87</v>
+      </c>
       <c r="C89" s="13"/>
       <c r="D89" s="39"/>
       <c r="E89" s="9"/>
@@ -5009,14 +5013,18 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H89" s="39"/>
+      <c r="H89" s="39">
+        <v>5</v>
+      </c>
       <c r="I89" s="9"/>
       <c r="J89" s="11"/>
-      <c r="K89" s="20"/>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K89" s="20" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -5032,9 +5040,9 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -5050,9 +5058,9 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -5068,9 +5076,9 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -5086,9 +5094,9 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -5104,9 +5112,9 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -5122,9 +5130,9 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -5140,9 +5148,9 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -5158,9 +5166,9 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -5176,9 +5184,9 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -5194,9 +5202,9 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -5212,9 +5220,9 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -5230,9 +5238,9 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -5248,9 +5256,9 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5266,9 +5274,9 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5284,9 +5292,9 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5302,9 +5310,9 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5320,9 +5328,9 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5338,9 +5346,9 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5356,9 +5364,9 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5374,9 +5382,9 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5392,9 +5400,9 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5410,9 +5418,9 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5428,9 +5436,9 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5446,9 +5454,9 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5464,9 +5472,9 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5482,9 +5490,9 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5500,9 +5508,9 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5518,9 +5526,9 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5536,9 +5544,9 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5554,9 +5562,9 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5572,41 +5580,59 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" s="41"/>
-      <c r="B121" s="15"/>
-      <c r="C121" s="42"/>
-      <c r="D121" s="43"/>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A121" s="40">
+        <v>46023</v>
+      </c>
+      <c r="B121" s="20"/>
+      <c r="C121" s="13"/>
+      <c r="D121" s="39"/>
       <c r="E121" s="9"/>
-      <c r="F121" s="15"/>
-      <c r="G121" s="42" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H121" s="43"/>
+      <c r="F121" s="20"/>
+      <c r="G121" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H121" s="39"/>
       <c r="I121" s="9"/>
-      <c r="J121" s="12"/>
-      <c r="K121" s="15"/>
+      <c r="J121" s="11"/>
+      <c r="K121" s="20"/>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A122" s="41"/>
+      <c r="B122" s="15"/>
+      <c r="C122" s="42"/>
+      <c r="D122" s="43"/>
+      <c r="E122" s="9"/>
+      <c r="F122" s="15"/>
+      <c r="G122" s="42" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H122" s="43"/>
+      <c r="I122" s="9"/>
+      <c r="J122" s="12"/>
+      <c r="K122" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5629,34 +5655,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K133"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A82" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3696" topLeftCell="A82" activePane="bottomLeft"/>
       <selection activeCell="C6" sqref="C6"/>
       <selection pane="bottomLeft" activeCell="A100" sqref="A100:B100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -5668,18 +5694,18 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51" t="s">
+      <c r="F2" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="51"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -5688,18 +5714,18 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="55">
         <v>39085</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -5710,18 +5736,18 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -5729,7 +5755,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -5742,24 +5768,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -5794,7 +5820,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -5818,7 +5844,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>45</v>
       </c>
@@ -5840,7 +5866,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43160</v>
       </c>
@@ -5864,7 +5890,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43191</v>
       </c>
@@ -5886,7 +5912,7 @@
         <v>43220</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40"/>
       <c r="B13" s="20" t="s">
         <v>54</v>
@@ -5906,7 +5932,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43221</v>
       </c>
@@ -5928,7 +5954,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43252</v>
       </c>
@@ -5952,7 +5978,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40"/>
       <c r="B16" s="20" t="s">
         <v>54</v>
@@ -5974,7 +6000,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
         <v>62</v>
@@ -5994,7 +6020,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43282</v>
       </c>
@@ -6018,7 +6044,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
         <v>65</v>
@@ -6038,7 +6064,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>54</v>
@@ -6060,7 +6086,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43313</v>
       </c>
@@ -6084,7 +6110,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40"/>
       <c r="B22" s="20" t="s">
         <v>54</v>
@@ -6106,7 +6132,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>69</v>
@@ -6126,7 +6152,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>43344</v>
       </c>
@@ -6150,7 +6176,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40"/>
       <c r="B25" s="20" t="s">
         <v>73</v>
@@ -6170,7 +6196,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>43374</v>
       </c>
@@ -6192,7 +6218,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>43405</v>
       </c>
@@ -6214,7 +6240,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="48" t="s">
         <v>78</v>
       </c>
@@ -6232,7 +6258,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>43466</v>
       </c>
@@ -6254,7 +6280,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>80</v>
@@ -6274,7 +6300,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>43497</v>
       </c>
@@ -6298,7 +6324,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>43525</v>
       </c>
@@ -6322,7 +6348,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>43556</v>
       </c>
@@ -6344,7 +6370,7 @@
         <v>43560</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>47</v>
@@ -6366,7 +6392,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>53</v>
@@ -6386,7 +6412,7 @@
         <v>43579</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>80</v>
@@ -6408,7 +6434,7 @@
         <v>43581</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>43586</v>
       </c>
@@ -6432,7 +6458,7 @@
         <v>43593</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>43617</v>
       </c>
@@ -6456,7 +6482,7 @@
         <v>43627</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>53</v>
@@ -6476,7 +6502,7 @@
         <v>43635</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>46</v>
@@ -6498,7 +6524,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>43647</v>
       </c>
@@ -6522,7 +6548,7 @@
         <v>43662</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
         <v>47</v>
@@ -6544,7 +6570,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>43678</v>
       </c>
@@ -6568,7 +6594,7 @@
         <v>43696</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>43709</v>
       </c>
@@ -6592,7 +6618,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
         <v>87</v>
@@ -6614,7 +6640,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>80</v>
@@ -6636,7 +6662,7 @@
         <v>43733</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>43739</v>
       </c>
@@ -6660,7 +6686,7 @@
         <v>43741</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
         <v>47</v>
@@ -6682,7 +6708,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>43770</v>
       </c>
@@ -6706,7 +6732,7 @@
         <v>43777</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40"/>
       <c r="B50" s="20" t="s">
         <v>70</v>
@@ -6728,7 +6754,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
         <v>46</v>
@@ -6750,7 +6776,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="48" t="s">
         <v>91</v>
       </c>
@@ -6768,7 +6794,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>43831</v>
       </c>
@@ -6792,7 +6818,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>43862</v>
       </c>
@@ -6814,7 +6840,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>93</v>
@@ -6834,7 +6860,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>43983</v>
       </c>
@@ -6858,7 +6884,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>44075</v>
       </c>
@@ -6882,7 +6908,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>58</v>
@@ -6904,7 +6930,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40"/>
       <c r="B59" s="20" t="s">
         <v>98</v>
@@ -6924,7 +6950,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>44166</v>
       </c>
@@ -6946,7 +6972,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="48" t="s">
         <v>101</v>
       </c>
@@ -6964,7 +6990,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>44197</v>
       </c>
@@ -6988,7 +7014,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>44228</v>
       </c>
@@ -7010,7 +7036,7 @@
         <v>44229</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40"/>
       <c r="B64" s="20" t="s">
         <v>80</v>
@@ -7032,7 +7058,7 @@
         <v>44253</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>44256</v>
       </c>
@@ -7056,7 +7082,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>44378</v>
       </c>
@@ -7080,7 +7106,7 @@
         <v>44385</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>81</v>
@@ -7102,7 +7128,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40"/>
       <c r="B68" s="20" t="s">
         <v>80</v>
@@ -7124,7 +7150,7 @@
         <v>44400</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>44409</v>
       </c>
@@ -7148,7 +7174,7 @@
         <v>44413</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="20" t="s">
         <v>46</v>
@@ -7170,7 +7196,7 @@
         <v>44407</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>53</v>
@@ -7190,7 +7216,7 @@
         <v>44417</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>44470</v>
       </c>
@@ -7212,7 +7238,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>80</v>
@@ -7234,7 +7260,7 @@
         <v>44496</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>44531</v>
       </c>
@@ -7252,7 +7278,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="48" t="s">
         <v>106</v>
       </c>
@@ -7270,7 +7296,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>44562</v>
       </c>
@@ -7292,7 +7318,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>44593</v>
       </c>
@@ -7316,7 +7342,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
         <v>53</v>
@@ -7336,7 +7362,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>44621</v>
       </c>
@@ -7360,7 +7386,7 @@
         <v>44638</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
         <v>46</v>
@@ -7382,7 +7408,7 @@
         <v>44634</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>46</v>
@@ -7404,7 +7430,7 @@
         <v>44642</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <v>44652</v>
       </c>
@@ -7428,7 +7454,7 @@
         <v>44669</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20" t="s">
         <v>53</v>
@@ -7448,7 +7474,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <v>44743</v>
       </c>
@@ -7472,7 +7498,7 @@
         <v>44753</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <v>44774</v>
       </c>
@@ -7496,7 +7522,7 @@
         <v>44767</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20" t="s">
         <v>46</v>
@@ -7518,7 +7544,7 @@
         <v>44775</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>80</v>
@@ -7540,7 +7566,7 @@
         <v>44795</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <v>44805</v>
       </c>
@@ -7564,7 +7590,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
         <v>47</v>
@@ -7586,7 +7612,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20" t="s">
         <v>80</v>
@@ -7608,7 +7634,7 @@
         <v>44832</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <v>44835</v>
       </c>
@@ -7632,7 +7658,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20" t="s">
         <v>80</v>
@@ -7654,7 +7680,7 @@
         <v>44861</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <v>44866</v>
       </c>
@@ -7678,7 +7704,7 @@
         <v>44872</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
         <v>47</v>
@@ -7700,7 +7726,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <v>44896</v>
       </c>
@@ -7724,7 +7750,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="48" t="s">
         <v>118</v>
       </c>
@@ -7742,7 +7768,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <v>44958</v>
       </c>
@@ -7766,7 +7792,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
         <v>44986</v>
       </c>
@@ -7788,7 +7814,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
         <v>53</v>
@@ -7808,7 +7834,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
         <v>45017</v>
       </c>
@@ -7828,7 +7854,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -7844,7 +7870,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -7860,7 +7886,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -7876,7 +7902,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -7892,7 +7918,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -7908,7 +7934,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -7924,7 +7950,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -7940,7 +7966,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -7956,7 +7982,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -7972,7 +7998,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -7988,7 +8014,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -8004,7 +8030,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -8020,7 +8046,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -8036,7 +8062,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -8052,7 +8078,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -8068,7 +8094,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -8084,7 +8110,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -8100,7 +8126,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -8116,7 +8142,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -8132,7 +8158,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -8148,7 +8174,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -8164,7 +8190,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -8180,7 +8206,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -8196,7 +8222,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -8212,7 +8238,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -8228,7 +8254,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -8244,7 +8270,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -8260,7 +8286,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -8276,7 +8302,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -8292,7 +8318,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -8308,7 +8334,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -8324,7 +8350,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -8340,7 +8366,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="41"/>
       <c r="B133" s="15"/>
       <c r="C133" s="42"/>
@@ -8371,10 +8397,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8397,28 +8423,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -8431,7 +8457,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -8460,7 +8486,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>84.25</v>
       </c>
@@ -8490,17 +8516,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -8521,7 +8547,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -8548,7 +8574,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -8574,7 +8600,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -8600,7 +8626,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -8626,7 +8652,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -8652,7 +8678,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -8678,7 +8704,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -8704,7 +8730,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -8730,7 +8756,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -8750,7 +8776,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -8770,7 +8796,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -8790,7 +8816,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -8811,7 +8837,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -8832,7 +8858,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -8853,7 +8879,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -8874,7 +8900,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -8895,7 +8921,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -8916,7 +8942,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -8937,7 +8963,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -8958,7 +8984,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -8979,7 +9005,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -9000,7 +9026,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -9021,7 +9047,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -9042,7 +9068,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -9063,7 +9089,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -9084,7 +9110,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -9105,7 +9131,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -9126,7 +9152,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -9147,7 +9173,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -9168,7 +9194,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -9189,7 +9215,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -9210,7 +9236,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -9219,7 +9245,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -9228,7 +9254,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -9237,7 +9263,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -9246,7 +9272,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -9255,7 +9281,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -9264,7 +9290,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -9273,7 +9299,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -9282,7 +9308,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -9291,7 +9317,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -9300,7 +9326,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -9309,7 +9335,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -9318,7 +9344,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -9327,7 +9353,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -9336,7 +9362,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -9345,7 +9371,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -9354,7 +9380,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -9363,7 +9389,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -9372,7 +9398,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -9381,7 +9407,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -9390,7 +9416,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -9399,7 +9425,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -9408,7 +9434,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -9417,7 +9443,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -9426,7 +9452,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -9435,7 +9461,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -9444,7 +9470,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -9453,7 +9479,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -9462,7 +9488,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -9471,7 +9497,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/ROMILLA, MARIBEL.xlsx
+++ b/NEW HR/ROMILLA, MARIBEL.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EAE2832-B833-4238-9FC3-4D166E99D6FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -28,7 +27,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="126">
   <si>
     <t>PERIOD</t>
   </si>
@@ -421,7 +420,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -800,17 +799,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -820,6 +816,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1350,7 +1349,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1393,7 +1392,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1457,7 +1456,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1517,7 +1516,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1583,7 +1582,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1646,7 +1645,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1744,7 +1743,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1803,7 +1802,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1868,7 +1867,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1911,7 +1910,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1986,7 +1985,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2172,7 +2171,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2238,7 +2237,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2296,7 +2295,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2362,7 +2361,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2418,7 +2417,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2493,7 +2492,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2536,7 +2535,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2602,7 +2601,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2658,7 +2657,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2754,25 +2753,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K122" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K122" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2784,25 +2783,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K133" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K133" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3109,7 +3108,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3119,7 +3118,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3127,34 +3126,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K122"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A79" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A79" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
       <selection pane="bottomLeft" activeCell="K89" sqref="K89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3166,18 +3165,18 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="54"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3186,18 +3185,18 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="54">
         <v>39085</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3208,18 +3207,18 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3227,7 +3226,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3240,24 +3239,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3292,7 +3291,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3316,7 +3315,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>45</v>
       </c>
@@ -3338,7 +3337,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3364,7 +3363,7 @@
         <v>43110</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40"/>
       <c r="B12" s="20" t="s">
         <v>46</v>
@@ -3386,7 +3385,7 @@
         <v>43126</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43132</v>
       </c>
@@ -3412,7 +3411,7 @@
         <v>43144</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40"/>
       <c r="B14" s="20" t="s">
         <v>47</v>
@@ -3434,7 +3433,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43160</v>
       </c>
@@ -3454,7 +3453,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43191</v>
       </c>
@@ -3480,7 +3479,7 @@
         <v>43192</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
         <v>52</v>
@@ -3502,7 +3501,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43221</v>
       </c>
@@ -3528,7 +3527,7 @@
         <v>43222</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
         <v>55</v>
@@ -3550,7 +3549,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43252</v>
       </c>
@@ -3576,7 +3575,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43282</v>
       </c>
@@ -3602,7 +3601,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43313</v>
       </c>
@@ -3622,7 +3621,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>43344</v>
       </c>
@@ -3648,7 +3647,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43374</v>
       </c>
@@ -3674,7 +3673,7 @@
         <v>43388</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
       <c r="B25" s="20" t="s">
         <v>47</v>
@@ -3696,7 +3695,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43405</v>
       </c>
@@ -3722,7 +3721,7 @@
         <v>43410</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43435</v>
       </c>
@@ -3748,7 +3747,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>120</v>
@@ -3768,7 +3767,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="48" t="s">
         <v>78</v>
       </c>
@@ -3786,7 +3785,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>43466</v>
       </c>
@@ -3806,7 +3805,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43497</v>
       </c>
@@ -3826,7 +3825,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>43525</v>
       </c>
@@ -3846,7 +3845,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43556</v>
       </c>
@@ -3866,7 +3865,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="49"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>43586</v>
       </c>
@@ -3886,7 +3885,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="49"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>43617</v>
       </c>
@@ -3906,7 +3905,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="49"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>43647</v>
       </c>
@@ -3926,7 +3925,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="49"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>43678</v>
       </c>
@@ -3946,7 +3945,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="49"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>43709</v>
       </c>
@@ -3966,7 +3965,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="49"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>43739</v>
       </c>
@@ -3986,7 +3985,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="49"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>43770</v>
       </c>
@@ -4006,7 +4005,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="49"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>43800</v>
       </c>
@@ -4030,7 +4029,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="48" t="s">
         <v>91</v>
       </c>
@@ -4048,7 +4047,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>43831</v>
       </c>
@@ -4068,7 +4067,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>43862</v>
       </c>
@@ -4088,7 +4087,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>43891</v>
       </c>
@@ -4108,7 +4107,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>43922</v>
       </c>
@@ -4128,7 +4127,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>43952</v>
       </c>
@@ -4148,7 +4147,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>43983</v>
       </c>
@@ -4168,7 +4167,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="49"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>44013</v>
       </c>
@@ -4188,7 +4187,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>44044</v>
       </c>
@@ -4208,7 +4207,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>44075</v>
       </c>
@@ -4228,7 +4227,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>44105</v>
       </c>
@@ -4248,7 +4247,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>44136</v>
       </c>
@@ -4268,7 +4267,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>44166</v>
       </c>
@@ -4292,7 +4291,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="48" t="s">
         <v>101</v>
       </c>
@@ -4310,7 +4309,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>44197</v>
       </c>
@@ -4330,7 +4329,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>44228</v>
       </c>
@@ -4350,7 +4349,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="49"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>44256</v>
       </c>
@@ -4370,7 +4369,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44287</v>
       </c>
@@ -4390,7 +4389,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>44317</v>
       </c>
@@ -4410,7 +4409,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>44348</v>
       </c>
@@ -4430,7 +4429,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>44378</v>
       </c>
@@ -4450,7 +4449,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="49"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>44409</v>
       </c>
@@ -4470,7 +4469,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="49"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44440</v>
       </c>
@@ -4490,7 +4489,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>44470</v>
       </c>
@@ -4510,7 +4509,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="41">
         <v>44501</v>
       </c>
@@ -4530,7 +4529,7 @@
       <c r="J66" s="12"/>
       <c r="K66" s="15"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>44531</v>
       </c>
@@ -4554,7 +4553,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="48" t="s">
         <v>106</v>
       </c>
@@ -4572,7 +4571,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44562</v>
       </c>
@@ -4592,7 +4591,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>44593</v>
       </c>
@@ -4612,7 +4611,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>44621</v>
       </c>
@@ -4632,7 +4631,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="49"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>44652</v>
       </c>
@@ -4652,7 +4651,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="49"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>44682</v>
       </c>
@@ -4672,7 +4671,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>44713</v>
       </c>
@@ -4692,7 +4691,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>44743</v>
       </c>
@@ -4712,7 +4711,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="49"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>44774</v>
       </c>
@@ -4732,7 +4731,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="49"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>44805</v>
       </c>
@@ -4752,7 +4751,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>44835</v>
       </c>
@@ -4772,7 +4771,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>44866</v>
       </c>
@@ -4792,7 +4791,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="49"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>44896</v>
       </c>
@@ -4816,7 +4815,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>46</v>
@@ -4838,7 +4837,7 @@
         <v>44918</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="48" t="s">
         <v>118</v>
       </c>
@@ -4856,7 +4855,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>44927</v>
       </c>
@@ -4876,7 +4875,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>44958</v>
       </c>
@@ -4902,7 +4901,7 @@
         <v>44960</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>83</v>
@@ -4924,7 +4923,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>44986</v>
       </c>
@@ -4950,7 +4949,7 @@
         <v>44949</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>45017</v>
       </c>
@@ -4976,7 +4975,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>45047</v>
       </c>
@@ -5000,7 +4999,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
         <v>87</v>
@@ -5022,7 +5021,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>45078</v>
       </c>
@@ -5040,7 +5039,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>45108</v>
       </c>
@@ -5058,7 +5057,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>45139</v>
       </c>
@@ -5076,7 +5075,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>45170</v>
       </c>
@@ -5094,7 +5093,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>45200</v>
       </c>
@@ -5112,7 +5111,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>45231</v>
       </c>
@@ -5130,7 +5129,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>45261</v>
       </c>
@@ -5148,7 +5147,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>45292</v>
       </c>
@@ -5166,7 +5165,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>45323</v>
       </c>
@@ -5184,7 +5183,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>45352</v>
       </c>
@@ -5202,7 +5201,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>45383</v>
       </c>
@@ -5220,7 +5219,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>45413</v>
       </c>
@@ -5238,7 +5237,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>45444</v>
       </c>
@@ -5256,7 +5255,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>45474</v>
       </c>
@@ -5274,7 +5273,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>45505</v>
       </c>
@@ -5292,7 +5291,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>45536</v>
       </c>
@@ -5310,7 +5309,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>45566</v>
       </c>
@@ -5328,7 +5327,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>45597</v>
       </c>
@@ -5346,7 +5345,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>45627</v>
       </c>
@@ -5364,7 +5363,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <v>45658</v>
       </c>
@@ -5382,7 +5381,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>45689</v>
       </c>
@@ -5400,7 +5399,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>45717</v>
       </c>
@@ -5418,7 +5417,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <v>45748</v>
       </c>
@@ -5436,7 +5435,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <v>45778</v>
       </c>
@@ -5454,7 +5453,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>45809</v>
       </c>
@@ -5472,7 +5471,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>45839</v>
       </c>
@@ -5490,7 +5489,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>45870</v>
       </c>
@@ -5508,7 +5507,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>45901</v>
       </c>
@@ -5526,7 +5525,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>45931</v>
       </c>
@@ -5544,7 +5543,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>45962</v>
       </c>
@@ -5562,7 +5561,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>45992</v>
       </c>
@@ -5580,7 +5579,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <v>46023</v>
       </c>
@@ -5598,7 +5597,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="41"/>
       <c r="B122" s="15"/>
       <c r="C122" s="42"/>
@@ -5616,23 +5615,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5655,34 +5654,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A82" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A88" activePane="bottomLeft"/>
       <selection activeCell="C6" sqref="C6"/>
-      <selection pane="bottomLeft" activeCell="A100" sqref="A100:B100"/>
+      <selection pane="bottomLeft" activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -5694,18 +5693,18 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="54"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -5714,18 +5713,18 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="54">
         <v>39085</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -5736,18 +5735,18 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -5755,7 +5754,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -5768,24 +5767,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -5820,7 +5819,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -5829,7 +5828,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>10.295999999999992</v>
+        <v>9.2959999999999923</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -5844,7 +5843,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>45</v>
       </c>
@@ -5866,7 +5865,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43160</v>
       </c>
@@ -5890,7 +5889,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43191</v>
       </c>
@@ -5912,7 +5911,7 @@
         <v>43220</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40"/>
       <c r="B13" s="20" t="s">
         <v>54</v>
@@ -5932,7 +5931,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43221</v>
       </c>
@@ -5954,7 +5953,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43252</v>
       </c>
@@ -5978,7 +5977,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
       <c r="B16" s="20" t="s">
         <v>54</v>
@@ -6000,7 +5999,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
         <v>62</v>
@@ -6020,7 +6019,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43282</v>
       </c>
@@ -6044,7 +6043,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
         <v>65</v>
@@ -6064,7 +6063,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>54</v>
@@ -6086,7 +6085,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43313</v>
       </c>
@@ -6110,7 +6109,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
       <c r="B22" s="20" t="s">
         <v>54</v>
@@ -6132,7 +6131,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>69</v>
@@ -6152,7 +6151,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43344</v>
       </c>
@@ -6176,7 +6175,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
       <c r="B25" s="20" t="s">
         <v>73</v>
@@ -6196,7 +6195,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43374</v>
       </c>
@@ -6218,7 +6217,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43405</v>
       </c>
@@ -6240,7 +6239,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="48" t="s">
         <v>78</v>
       </c>
@@ -6258,7 +6257,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>43466</v>
       </c>
@@ -6280,7 +6279,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>80</v>
@@ -6300,7 +6299,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43497</v>
       </c>
@@ -6324,7 +6323,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>43525</v>
       </c>
@@ -6348,7 +6347,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43556</v>
       </c>
@@ -6370,7 +6369,7 @@
         <v>43560</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>47</v>
@@ -6392,7 +6391,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>53</v>
@@ -6412,7 +6411,7 @@
         <v>43579</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>80</v>
@@ -6434,7 +6433,7 @@
         <v>43581</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>43586</v>
       </c>
@@ -6458,7 +6457,7 @@
         <v>43593</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>43617</v>
       </c>
@@ -6482,7 +6481,7 @@
         <v>43627</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>53</v>
@@ -6502,7 +6501,7 @@
         <v>43635</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>46</v>
@@ -6524,7 +6523,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>43647</v>
       </c>
@@ -6548,7 +6547,7 @@
         <v>43662</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
         <v>47</v>
@@ -6570,7 +6569,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>43678</v>
       </c>
@@ -6594,7 +6593,7 @@
         <v>43696</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>43709</v>
       </c>
@@ -6618,7 +6617,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
         <v>87</v>
@@ -6640,7 +6639,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>80</v>
@@ -6662,7 +6661,7 @@
         <v>43733</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>43739</v>
       </c>
@@ -6686,7 +6685,7 @@
         <v>43741</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
         <v>47</v>
@@ -6708,7 +6707,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>43770</v>
       </c>
@@ -6732,7 +6731,7 @@
         <v>43777</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20" t="s">
         <v>70</v>
@@ -6754,7 +6753,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
         <v>46</v>
@@ -6776,7 +6775,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="48" t="s">
         <v>91</v>
       </c>
@@ -6794,7 +6793,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>43831</v>
       </c>
@@ -6818,7 +6817,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>43862</v>
       </c>
@@ -6840,7 +6839,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>93</v>
@@ -6860,7 +6859,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>43983</v>
       </c>
@@ -6884,7 +6883,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>44075</v>
       </c>
@@ -6908,7 +6907,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>58</v>
@@ -6930,7 +6929,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20" t="s">
         <v>98</v>
@@ -6950,7 +6949,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>44166</v>
       </c>
@@ -6972,7 +6971,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="48" t="s">
         <v>101</v>
       </c>
@@ -6990,7 +6989,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>44197</v>
       </c>
@@ -7014,7 +7013,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>44228</v>
       </c>
@@ -7036,7 +7035,7 @@
         <v>44229</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
       <c r="B64" s="20" t="s">
         <v>80</v>
@@ -7058,7 +7057,7 @@
         <v>44253</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>44256</v>
       </c>
@@ -7082,7 +7081,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>44378</v>
       </c>
@@ -7106,7 +7105,7 @@
         <v>44385</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>81</v>
@@ -7128,7 +7127,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20" t="s">
         <v>80</v>
@@ -7150,7 +7149,7 @@
         <v>44400</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44409</v>
       </c>
@@ -7174,7 +7173,7 @@
         <v>44413</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20" t="s">
         <v>46</v>
@@ -7196,7 +7195,7 @@
         <v>44407</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>53</v>
@@ -7216,7 +7215,7 @@
         <v>44417</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>44470</v>
       </c>
@@ -7238,7 +7237,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>80</v>
@@ -7260,7 +7259,7 @@
         <v>44496</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>44531</v>
       </c>
@@ -7278,7 +7277,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="48" t="s">
         <v>106</v>
       </c>
@@ -7296,7 +7295,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>44562</v>
       </c>
@@ -7318,7 +7317,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>44593</v>
       </c>
@@ -7342,7 +7341,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
         <v>53</v>
@@ -7362,7 +7361,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>44621</v>
       </c>
@@ -7386,7 +7385,7 @@
         <v>44638</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
         <v>46</v>
@@ -7408,7 +7407,7 @@
         <v>44634</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>46</v>
@@ -7430,7 +7429,7 @@
         <v>44642</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>44652</v>
       </c>
@@ -7454,7 +7453,7 @@
         <v>44669</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20" t="s">
         <v>53</v>
@@ -7474,7 +7473,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>44743</v>
       </c>
@@ -7498,7 +7497,7 @@
         <v>44753</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>44774</v>
       </c>
@@ -7522,7 +7521,7 @@
         <v>44767</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20" t="s">
         <v>46</v>
@@ -7544,7 +7543,7 @@
         <v>44775</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>80</v>
@@ -7566,7 +7565,7 @@
         <v>44795</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>44805</v>
       </c>
@@ -7590,7 +7589,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
         <v>47</v>
@@ -7612,7 +7611,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20" t="s">
         <v>80</v>
@@ -7634,7 +7633,7 @@
         <v>44832</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>44835</v>
       </c>
@@ -7658,7 +7657,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20" t="s">
         <v>80</v>
@@ -7680,7 +7679,7 @@
         <v>44861</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>44866</v>
       </c>
@@ -7704,7 +7703,7 @@
         <v>44872</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
         <v>47</v>
@@ -7726,7 +7725,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>44896</v>
       </c>
@@ -7750,7 +7749,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="48" t="s">
         <v>118</v>
       </c>
@@ -7768,7 +7767,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>44958</v>
       </c>
@@ -7792,7 +7791,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>44986</v>
       </c>
@@ -7814,7 +7813,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
         <v>53</v>
@@ -7834,7 +7833,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>45017</v>
       </c>
@@ -7854,11 +7853,17 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A101" s="40"/>
-      <c r="B101" s="20"/>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" s="40">
+        <v>45099</v>
+      </c>
+      <c r="B101" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C101" s="13"/>
-      <c r="D101" s="39"/>
+      <c r="D101" s="39">
+        <v>1</v>
+      </c>
       <c r="E101" s="9"/>
       <c r="F101" s="20"/>
       <c r="G101" s="13" t="str">
@@ -7868,9 +7873,11 @@
       <c r="H101" s="39"/>
       <c r="I101" s="9"/>
       <c r="J101" s="11"/>
-      <c r="K101" s="20"/>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K101" s="49">
+        <v>45090</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -7886,7 +7893,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -7902,7 +7909,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -7918,7 +7925,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -7934,7 +7941,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -7950,7 +7957,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -7966,7 +7973,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -7982,7 +7989,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -7998,7 +8005,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -8014,7 +8021,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -8030,7 +8037,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -8046,7 +8053,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -8062,7 +8069,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -8078,7 +8085,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -8094,7 +8101,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -8110,7 +8117,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -8126,7 +8133,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -8142,7 +8149,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -8158,7 +8165,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -8174,7 +8181,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -8190,7 +8197,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -8206,7 +8213,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -8222,7 +8229,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -8238,7 +8245,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -8254,7 +8261,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -8270,7 +8277,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -8286,7 +8293,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -8302,7 +8309,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -8318,7 +8325,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -8334,7 +8341,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -8350,7 +8357,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -8366,7 +8373,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="41"/>
       <c r="B133" s="15"/>
       <c r="C133" s="42"/>
@@ -8397,10 +8404,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8423,28 +8430,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -8457,7 +8464,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -8486,7 +8493,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>84.25</v>
       </c>
@@ -8516,17 +8523,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -8547,7 +8554,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -8574,7 +8581,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -8600,7 +8607,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -8626,7 +8633,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -8652,7 +8659,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -8678,7 +8685,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -8704,7 +8711,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -8730,7 +8737,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -8756,7 +8763,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -8776,7 +8783,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -8796,7 +8803,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -8816,7 +8823,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -8837,7 +8844,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -8858,7 +8865,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -8879,7 +8886,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -8900,7 +8907,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -8921,7 +8928,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -8942,7 +8949,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -8963,7 +8970,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -8984,7 +8991,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -9005,7 +9012,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -9026,7 +9033,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -9047,7 +9054,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -9068,7 +9075,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -9089,7 +9096,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -9110,7 +9117,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -9131,7 +9138,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -9152,7 +9159,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -9173,7 +9180,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -9194,7 +9201,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -9215,7 +9222,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -9236,7 +9243,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -9245,7 +9252,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -9254,7 +9261,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -9263,7 +9270,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -9272,7 +9279,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -9281,7 +9288,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -9290,7 +9297,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -9299,7 +9306,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -9308,7 +9315,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -9317,7 +9324,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -9326,7 +9333,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -9335,7 +9342,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -9344,7 +9351,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -9353,7 +9360,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -9362,7 +9369,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -9371,7 +9378,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -9380,7 +9387,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -9389,7 +9396,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -9398,7 +9405,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -9407,7 +9414,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -9416,7 +9423,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -9425,7 +9432,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -9434,7 +9441,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -9443,7 +9450,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -9452,7 +9459,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -9461,7 +9468,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -9470,7 +9477,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -9479,7 +9486,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -9488,7 +9495,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -9497,7 +9504,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/ROMILLA, MARIBEL.xlsx
+++ b/NEW HR/ROMILLA, MARIBEL.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="127">
   <si>
     <t>PERIOD</t>
   </si>
@@ -415,6 +415,9 @@
   </si>
   <si>
     <t>5/10,16-19/2023</t>
+  </si>
+  <si>
+    <t>7/13,19/2023</t>
   </si>
 </sst>
 </file>
@@ -799,14 +802,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -816,9 +822,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1349,7 +1352,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1392,7 +1395,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1456,7 +1459,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1516,7 +1519,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1582,7 +1585,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1645,7 +1648,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1743,7 +1746,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1802,7 +1805,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1867,7 +1870,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1910,7 +1913,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1985,7 +1988,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2171,7 +2174,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2237,7 +2240,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2295,7 +2298,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2361,7 +2364,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2417,7 +2420,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2492,7 +2495,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2535,7 +2538,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2601,7 +2604,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2657,7 +2660,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3135,7 +3138,7 @@
     <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A79" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="K89" sqref="K89"/>
+      <selection pane="bottomLeft" activeCell="I91" sqref="I91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3165,16 +3168,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51" t="s">
+      <c r="F2" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="51"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3185,16 +3188,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="55">
         <v>39085</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3207,16 +3210,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3242,18 +3245,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3300,7 +3303,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>48</v>
+        <v>49.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3310,7 +3313,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>35</v>
+        <v>34.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -5026,13 +5029,15 @@
         <v>45078</v>
       </c>
       <c r="B90" s="20"/>
-      <c r="C90" s="13"/>
+      <c r="C90" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D90" s="39"/>
       <c r="E90" s="9"/>
       <c r="F90" s="20"/>
-      <c r="G90" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G90" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H90" s="39"/>
       <c r="I90" s="9"/>
@@ -5043,7 +5048,9 @@
       <c r="A91" s="40">
         <v>45108</v>
       </c>
-      <c r="B91" s="20"/>
+      <c r="B91" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C91" s="13"/>
       <c r="D91" s="39"/>
       <c r="E91" s="9"/>
@@ -5052,10 +5059,14 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H91" s="39"/>
+      <c r="H91" s="39">
+        <v>2</v>
+      </c>
       <c r="I91" s="9"/>
       <c r="J91" s="11"/>
-      <c r="K91" s="20"/>
+      <c r="K91" s="20" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
@@ -5615,17 +5626,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5663,7 +5674,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A88" activePane="bottomLeft"/>
       <selection activeCell="C6" sqref="C6"/>
-      <selection pane="bottomLeft" activeCell="D102" sqref="D102"/>
+      <selection pane="bottomLeft" activeCell="E102" sqref="E102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5693,16 +5704,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51" t="s">
+      <c r="F2" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="51"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5713,16 +5724,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="55">
         <v>39085</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -5735,16 +5746,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5770,18 +5781,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5828,7 +5839,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>9.2959999999999923</v>
+        <v>8.2959999999999923</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -7878,10 +7889,16 @@
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="40"/>
-      <c r="B102" s="20"/>
+      <c r="A102" s="40">
+        <v>45132</v>
+      </c>
+      <c r="B102" s="20" t="s">
+        <v>80</v>
+      </c>
       <c r="C102" s="13"/>
-      <c r="D102" s="39"/>
+      <c r="D102" s="39">
+        <v>1</v>
+      </c>
       <c r="E102" s="9"/>
       <c r="F102" s="20"/>
       <c r="G102" s="13" t="str">
@@ -7891,7 +7908,9 @@
       <c r="H102" s="39"/>
       <c r="I102" s="9"/>
       <c r="J102" s="11"/>
-      <c r="K102" s="20"/>
+      <c r="K102" s="49">
+        <v>45135</v>
+      </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
